--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
@@ -1449,10 +1449,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341064803B07E4F8A0204BD36BE6D07" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75815dbc30d6e2c2c6f7db4084dd8576">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48eed89a-7418-4977-ae3a-838f0fac8ec5" xmlns:ns3="416d42ac-85ec-40c4-8054-6c816fd4b6a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62d034e6bb04b5aaada07dd500b11312" ns2:_="" ns3:_="">
-    <xsd:import namespace="48eed89a-7418-4977-ae3a-838f0fac8ec5"/>
-    <xsd:import namespace="416d42ac-85ec-40c4-8054-6c816fd4b6a7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a214a3ba0c52ae00a3b9ea52e20da1dd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1812e4edb338c892157ee4b16223776a" ns2:_="" ns3:_="">
+    <xsd:import namespace="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
+    <xsd:import namespace="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1462,14 +1462,12 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1477,7 +1475,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="48eed89a-7418-4977-ae3a-838f0fac8ec5" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7db9c71a-8f0f-4486-8c92-6242e053eab7" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1495,50 +1493,40 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="416d42ac-85ec-40c4-8054-6c816fd4b6a7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f2f505f1-ba8b-4e5d-ab63-2b0077c99565}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="416d42ac-85ec-40c4-8054-6c816fd4b6a7">
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{79606235-ded0-4d00-a81d-9caf851eecac}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8ae01698-3168-4e7f-b9e7-0ddc1c80de73">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -1559,8 +1547,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1652,10 +1640,10 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="48eed89a-7418-4977-ae3a-838f0fac8ec5">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7db9c71a-8f0f-4486-8c92-6242e053eab7">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="416d42ac-85ec-40c4-8054-6c816fd4b6a7" xsi:nil="true"/>
+    <TaxCatchAll xmlns="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -1670,7 +1658,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{848484F0-BF83-446E-BB4B-DB1802ADADEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB110C6-B50A-42E2-941F-7BEF0E5F126C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Projections.xlsx
@@ -1449,8 +1449,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a214a3ba0c52ae00a3b9ea52e20da1dd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1812e4edb338c892157ee4b16223776a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F48F53D8446FB4EB61FD3AFE2640F25" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c42e2caa13ae5d6057eea9be68815fce">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7db9c71a-8f0f-4486-8c92-6242e053eab7" xmlns:ns3="8ae01698-3168-4e7f-b9e7-0ddc1c80de73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b95e89a8284191eba76f4506755f34ad" ns2:_="" ns3:_="">
     <xsd:import namespace="7db9c71a-8f0f-4486-8c92-6242e053eab7"/>
     <xsd:import namespace="8ae01698-3168-4e7f-b9e7-0ddc1c80de73"/>
     <xsd:element name="properties">
@@ -1493,7 +1493,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1547,8 +1547,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1658,7 +1658,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB110C6-B50A-42E2-941F-7BEF0E5F126C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9473D79-01CE-4827-B953-3C0D3DBFB6C6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
